--- a/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9398599888001579</v>
+        <v>-0.916658880733395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.263510580942254</v>
+        <v>-1.178511191717671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.129871328635535</v>
+        <v>-1.114728807443204</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6033744016075805</v>
+        <v>0.5187238462092695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02693127387995792</v>
+        <v>0.01561851880382188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2322637642323651</v>
+        <v>0.1992940559006756</v>
       </c>
     </row>
     <row r="7">
@@ -654,9 +654,7 @@
       <c r="C8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
@@ -669,15 +667,11 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.556039831040144</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>3.458754009572282</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>1.712255150441237</v>
+        <v>1.405450775303233</v>
       </c>
     </row>
     <row r="10">
@@ -709,13 +703,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1625850629309986</v>
+        <v>-0.1205163331383054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1119743306290262</v>
+        <v>-0.1624531467752059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3429323083981959</v>
+        <v>-0.3146505447030401</v>
       </c>
     </row>
     <row r="12">
@@ -726,13 +720,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.987804008436284</v>
+        <v>1.03135247317377</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.088670864830092</v>
+        <v>0.9846809469760026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5394133492680925</v>
+        <v>0.5003205604823533</v>
       </c>
     </row>
     <row r="13">
@@ -760,13 +754,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-0.7630062812435375</v>
-      </c>
+        <v>-0.7570277301022601</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.9448325547224774</v>
+        <v>-0.8177525431145906</v>
       </c>
     </row>
     <row r="15">
@@ -809,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.849216979583822</v>
+        <v>-1.712292550227713</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.732624063387401</v>
+        <v>-1.673104318034602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.84154612554597</v>
+        <v>-1.748994115584564</v>
       </c>
     </row>
     <row r="18">
@@ -826,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6561040906949404</v>
+        <v>0.6758378856606797</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3678952402298268</v>
+        <v>0.3593263519586904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09576111034755813</v>
+        <v>0.2437990125466567</v>
       </c>
     </row>
     <row r="19">
@@ -860,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8960388777238989</v>
+        <v>-0.9092358877758219</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8490272593444207</v>
+        <v>-0.8549109591050715</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8902877209851646</v>
+        <v>-0.857027969112673</v>
       </c>
     </row>
     <row r="21">
@@ -877,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.153541037427875</v>
+        <v>1.234635691411053</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9088101100430817</v>
+        <v>0.8338309938055268</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.404924378769446</v>
+        <v>0.6396507606162715</v>
       </c>
     </row>
     <row r="22">
@@ -915,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.021417833979321</v>
+        <v>-0.9283637541150901</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9795503792056551</v>
+        <v>-1.144067914648023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8165359502708149</v>
+        <v>-0.8970961922801952</v>
       </c>
     </row>
     <row r="24">
@@ -932,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5452501230936605</v>
+        <v>0.6301441769795513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4011643632683971</v>
+        <v>0.3912375437030721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6040638456277898</v>
+        <v>0.5088398160685561</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +947,7 @@
         <v>-0.3745580678712123</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1421137486179287</v>
+        <v>-0.1421137486179286</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.812962700768908</v>
+        <v>-0.7250668748847036</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8283732362335109</v>
+        <v>-0.8622467410201997</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6488654722151802</v>
+        <v>-0.6924244737522539</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.282449471877713</v>
+        <v>1.67501942549499</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.359757761015397</v>
+        <v>1.066300959945529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.798067843307801</v>
+        <v>1.270520562540243</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1002,7 @@
         <v>-0.2029292026679852</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.2240606352730003</v>
+        <v>-0.2240606352730002</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4721589475039013</v>
+        <v>-0.4803858895377482</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5729088640886424</v>
+        <v>-0.5731181942898735</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5808318522292844</v>
+        <v>-0.5916130185699389</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3484516176718546</v>
+        <v>0.288423048382809</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1682452315171885</v>
+        <v>0.2013767744362334</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08370709377203271</v>
+        <v>0.1003138226140046</v>
       </c>
     </row>
     <row r="31">
@@ -1061,7 +1053,7 @@
         <v>-0.2845184896525434</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3141459814572107</v>
+        <v>-0.3141459814572106</v>
       </c>
     </row>
     <row r="32">
@@ -1072,13 +1064,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5213636731114835</v>
+        <v>-0.5210632402214145</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6093084140153984</v>
+        <v>-0.6122963612647953</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6037291192233346</v>
+        <v>-0.6048630261497114</v>
       </c>
     </row>
     <row r="33">
@@ -1089,13 +1081,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6914955158868413</v>
+        <v>0.5841399342566606</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4032949579453973</v>
+        <v>0.4631268408505282</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1810643921110849</v>
+        <v>0.2607249657391886</v>
       </c>
     </row>
     <row r="34">
